--- a/Manual-Bugs-API/ITBC_Project_testCases.xlsx
+++ b/Manual-Bugs-API/ITBC_Project_testCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\Desktop\ProjectFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\IdeaProjects\ITBC_Project_MilosStamenkovic\Manual-Bugs-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE936B06-3000-4A0C-9318-48E0CCCBC7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D611BD4-8450-4650-BE60-89CD3604B2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1760" windowWidth="35020" windowHeight="18110" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1450" yWindow="2100" windowWidth="35020" windowHeight="18110" tabRatio="913" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="662">
   <si>
     <t>Scenarios</t>
   </si>
@@ -2635,7 +2635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4717,7 +4717,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F14" activeCellId="2" sqref="F10 F12 F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4827,6 +4827,9 @@
       <c r="B10" s="16" t="s">
         <v>172</v>
       </c>
+      <c r="F10" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
@@ -4850,6 +4853,9 @@
       <c r="B12" s="16" t="s">
         <v>174</v>
       </c>
+      <c r="F12" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
@@ -4876,6 +4882,9 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
+      <c r="F14" s="38" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
@@ -4934,7 +4943,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F16" activeCellId="3" sqref="F10 F12 F14 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5044,6 +5053,9 @@
       <c r="B10" s="16" t="s">
         <v>220</v>
       </c>
+      <c r="F10" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
@@ -5067,6 +5079,9 @@
       <c r="B12" s="16" t="s">
         <v>224</v>
       </c>
+      <c r="F12" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
@@ -5090,6 +5105,9 @@
       <c r="B14" s="16" t="s">
         <v>227</v>
       </c>
+      <c r="F14" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
@@ -5116,6 +5134,9 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
+      <c r="F16" s="38" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
@@ -5174,7 +5195,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C6"/>
+      <selection activeCell="F13" activeCellId="1" sqref="F10 F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5284,6 +5305,9 @@
       <c r="B10" s="16" t="s">
         <v>232</v>
       </c>
+      <c r="F10" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
@@ -5321,6 +5345,9 @@
       </c>
       <c r="B13" s="16" t="s">
         <v>233</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -5367,7 +5394,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C7"/>
+      <selection activeCell="F12" activeCellId="1" sqref="F10 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5476,6 +5503,9 @@
       <c r="B10" s="16" t="s">
         <v>234</v>
       </c>
+      <c r="F10" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
@@ -5502,6 +5532,9 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
+      <c r="F12" s="38" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
@@ -5750,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A368A4E-B6EC-4854-8145-0AD7D47CA7F5}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" activeCellId="3" sqref="F10 F12 F14 F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7285,7 +7318,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F18" activeCellId="2" sqref="F12 F15 F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7441,7 +7474,7 @@
       <c r="E12" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="37" t="s">
         <v>518</v>
       </c>
       <c r="G12" s="4"/>
@@ -7487,7 +7520,7 @@
       <c r="E15" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="37" t="s">
         <v>518</v>
       </c>
       <c r="G15" s="4"/>
@@ -7533,7 +7566,7 @@
       <c r="E18" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="37" t="s">
         <v>518</v>
       </c>
       <c r="G18" s="6"/>
@@ -9182,7 +9215,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F21" activeCellId="5" sqref="F13 F11 F15 F17 F19 F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9313,7 +9346,9 @@
       <c r="C11" s="10"/>
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="20" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
@@ -9338,7 +9373,9 @@
       <c r="B13" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
@@ -9366,7 +9403,9 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
@@ -9394,7 +9433,9 @@
       <c r="C17" s="10"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
@@ -9422,7 +9463,9 @@
       <c r="C19" s="10"/>
       <c r="D19" s="24"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
@@ -9449,6 +9492,9 @@
       <c r="C21" s="10"/>
       <c r="D21" s="22"/>
       <c r="E21" s="20"/>
+      <c r="F21" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
@@ -9488,7 +9534,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F14" activeCellId="2" sqref="F12 F10 F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9606,6 +9652,9 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
+      <c r="F10" s="37" t="s">
+        <v>518</v>
+      </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
     </row>
@@ -9636,6 +9685,9 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
+      <c r="F12" s="37" t="s">
+        <v>518</v>
+      </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
@@ -9666,6 +9718,9 @@
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="24"/>
+      <c r="F14" s="37" t="s">
+        <v>518</v>
+      </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
     </row>
@@ -9710,7 +9765,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C7"/>
+      <selection activeCell="F16" activeCellId="2" sqref="F10 F12 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9836,6 +9891,9 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="24"/>
+      <c r="F10" s="37" t="s">
+        <v>518</v>
+      </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
     </row>
@@ -9866,6 +9924,9 @@
       <c r="C12" s="20"/>
       <c r="D12" s="24"/>
       <c r="E12" s="20"/>
+      <c r="F12" s="37" t="s">
+        <v>518</v>
+      </c>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -9921,6 +9982,9 @@
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
+      <c r="F16" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
@@ -9981,7 +10045,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C7"/>
+      <selection activeCell="F14" activeCellId="2" sqref="F10 F12 F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10098,6 +10162,9 @@
         <v>124</v>
       </c>
       <c r="C10" s="20"/>
+      <c r="F10" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
@@ -10124,6 +10191,9 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
+      <c r="F12" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
@@ -10148,6 +10218,9 @@
         <v>130</v>
       </c>
       <c r="C14" s="20"/>
+      <c r="F14" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
@@ -10188,7 +10261,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C7"/>
+      <selection activeCell="F10" activeCellId="9" sqref="F30 F28 F26 F24 F22 F20 F18 F14 F12 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10305,6 +10378,9 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
+      <c r="F10" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
@@ -10328,6 +10404,9 @@
       <c r="B12" s="16" t="s">
         <v>134</v>
       </c>
+      <c r="F12" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
@@ -10353,6 +10432,9 @@
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
+      <c r="F14" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
@@ -10376,7 +10458,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
       <c r="B17" s="20" t="s">
         <v>565</v>
@@ -10391,7 +10473,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>47</v>
       </c>
@@ -10401,8 +10483,11 @@
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F18" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="20" t="s">
         <v>562</v>
@@ -10417,7 +10502,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
@@ -10427,8 +10512,11 @@
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F20" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
       <c r="B21" s="20" t="s">
         <v>561</v>
@@ -10443,7 +10531,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>49</v>
       </c>
@@ -10453,8 +10541,11 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F22" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
       <c r="B23" s="20" t="s">
         <v>560</v>
@@ -10469,7 +10560,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>50</v>
       </c>
@@ -10477,8 +10568,11 @@
         <v>146</v>
       </c>
       <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F24" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
       <c r="B25" s="20" t="s">
         <v>559</v>
@@ -10493,7 +10587,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>51</v>
       </c>
@@ -10503,8 +10597,11 @@
       <c r="C26" s="20"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F26" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
       <c r="B27" s="20" t="s">
         <v>558</v>
@@ -10519,7 +10616,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>52</v>
       </c>
@@ -10529,8 +10626,11 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F28" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="20" t="s">
         <v>557</v>
@@ -10545,7 +10645,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>53</v>
       </c>
@@ -10555,8 +10655,11 @@
       <c r="C30" s="20"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F30" s="38" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
         <v>556</v>
@@ -10571,7 +10674,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -10653,7 +10756,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C6"/>
+      <selection activeCell="F12" activeCellId="1" sqref="F10 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10764,6 +10867,9 @@
         <v>154</v>
       </c>
       <c r="C10" s="20"/>
+      <c r="F10" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
@@ -10786,6 +10892,9 @@
       </c>
       <c r="B12" s="16" t="s">
         <v>156</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -10840,7 +10949,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F17" activeCellId="2" sqref="F10 F13 F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10950,6 +11059,9 @@
       <c r="B10" s="16" t="s">
         <v>160</v>
       </c>
+      <c r="F10" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
@@ -10982,6 +11094,9 @@
       <c r="B13" s="16" t="s">
         <v>165</v>
       </c>
+      <c r="F13" s="37" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
@@ -11016,15 +11131,18 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="20" t="s">
         <v>572</v>
@@ -11033,7 +11151,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="20" t="s">
         <v>577</v>
@@ -11048,10 +11166,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
     </row>
   </sheetData>

--- a/Manual-Bugs-API/ITBC_Project_testCases.xlsx
+++ b/Manual-Bugs-API/ITBC_Project_testCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\IdeaProjects\ITBC_Project_MilosStamenkovic\Manual-Bugs-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D611BD4-8450-4650-BE60-89CD3604B2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9B07BE-05FC-461C-AABA-20A4ECE08459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1450" yWindow="2100" windowWidth="35020" windowHeight="18110" tabRatio="913" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="5400" windowWidth="35020" windowHeight="18110" tabRatio="913" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2636,12 +2636,12 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.453125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.6328125" style="8" customWidth="1"/>
     <col min="2" max="2" width="33.453125" customWidth="1"/>
     <col min="3" max="3" width="59.90625" customWidth="1"/>
     <col min="4" max="4" width="32.54296875" customWidth="1"/>
@@ -5783,7 +5783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A368A4E-B6EC-4854-8145-0AD7D47CA7F5}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -6899,7 +6899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64F78D7-C5E6-436E-BCCF-2C1269382E6C}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" activeCellId="1" sqref="F10 F12"/>
     </sheetView>
   </sheetViews>
@@ -7078,7 +7078,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" activeCellId="3" sqref="F10 F12 F14 F16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
